--- a/7432_2019_Hardware_ID.xlsx
+++ b/7432_2019_Hardware_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcibam\Documents\GitHub\DeepSpace\FRC7432_DeepSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4C4990-70A8-463B-A021-7BCAF7C1F558}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91A58655-937C-4DEA-B1AB-D1A1DC8A3761}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{E4B7A93B-49AA-4EB5-A461-7A3613D56331}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Drive</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>NavX</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Extend</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>2.O</t>
   </si>
 </sst>
 </file>
@@ -499,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA92944-2D88-4CE0-BB91-79309312C1F4}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,6 +658,9 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -801,6 +819,50 @@
       </c>
       <c r="C29">
         <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/7432_2019_Hardware_ID.xlsx
+++ b/7432_2019_Hardware_ID.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcibam\Documents\GitHub\DeepSpace\FRC7432_DeepSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91A58655-937C-4DEA-B1AB-D1A1DC8A3761}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39327429-12FF-4B2A-B595-ADCC6A79A772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{E4B7A93B-49AA-4EB5-A461-7A3613D56331}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA92944-2D88-4CE0-BB91-79309312C1F4}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
